--- a/data/example_data/tooling_data.xlsx
+++ b/data/example_data/tooling_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juana\OneDrive\Documentos\Universidad de los Andes\8 semestre\Procesos de manufactura industrial\PROYECTO4\MachiningOptimization\data\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA33A3A9-3D4A-41D6-9716-2C0509B77301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8BEEA2-176C-4868-B6B4-7C7A8660CDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="3525" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="3525" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine materials" sheetId="1" r:id="rId1"/>
@@ -578,9 +578,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2206,6 +2211,502 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>24.5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="G2">
+        <v>349.5</v>
+      </c>
+      <c r="H2">
+        <v>507.7</v>
+      </c>
+      <c r="I2">
+        <v>12.51</v>
+      </c>
+      <c r="J2">
+        <v>0.1431</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>137.21</v>
+      </c>
+      <c r="M2">
+        <v>10000</v>
+      </c>
+      <c r="N2">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>24.5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>172.6</v>
+      </c>
+      <c r="G3">
+        <v>429.74</v>
+      </c>
+      <c r="H3">
+        <v>602.34</v>
+      </c>
+      <c r="I3">
+        <v>12.51</v>
+      </c>
+      <c r="J3">
+        <v>0.1163</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>285.68</v>
+      </c>
+      <c r="M3">
+        <v>10000</v>
+      </c>
+      <c r="N3">
+        <v>7166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>24.5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>154.88</v>
+      </c>
+      <c r="G4">
+        <v>354.6</v>
+      </c>
+      <c r="H4">
+        <v>509.48</v>
+      </c>
+      <c r="I4">
+        <v>12.51</v>
+      </c>
+      <c r="J4">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>260.93</v>
+      </c>
+      <c r="M4">
+        <v>12000</v>
+      </c>
+      <c r="N4">
+        <v>7141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>24.5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>43.95</v>
+      </c>
+      <c r="G5">
+        <v>347.1</v>
+      </c>
+      <c r="H5">
+        <v>391.05</v>
+      </c>
+      <c r="I5">
+        <v>12.51</v>
+      </c>
+      <c r="J5">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>203.12</v>
+      </c>
+      <c r="M5">
+        <v>12000</v>
+      </c>
+      <c r="N5">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>24.5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>43.9</v>
+      </c>
+      <c r="G6">
+        <v>406.8</v>
+      </c>
+      <c r="H6">
+        <v>450.7</v>
+      </c>
+      <c r="I6">
+        <v>12.51</v>
+      </c>
+      <c r="J6">
+        <v>0.1229</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>162.66999999999999</v>
+      </c>
+      <c r="M6">
+        <v>15000</v>
+      </c>
+      <c r="N6">
+        <v>7124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>24.5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>79</v>
+      </c>
+      <c r="G7">
+        <v>443.2</v>
+      </c>
+      <c r="H7">
+        <v>522.20000000000005</v>
+      </c>
+      <c r="I7">
+        <v>12.51</v>
+      </c>
+      <c r="J7">
+        <v>0.1128</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>287.18</v>
+      </c>
+      <c r="M7">
+        <v>15000</v>
+      </c>
+      <c r="N7">
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>24.5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>93.6</v>
+      </c>
+      <c r="G8">
+        <v>206.7</v>
+      </c>
+      <c r="H8">
+        <v>300.3</v>
+      </c>
+      <c r="I8">
+        <v>12.51</v>
+      </c>
+      <c r="J8">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>248.46</v>
+      </c>
+      <c r="M8">
+        <v>8500</v>
+      </c>
+      <c r="N8">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>24.5</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G9">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="H9">
+        <v>238.7</v>
+      </c>
+      <c r="I9">
+        <v>12.51</v>
+      </c>
+      <c r="J9">
+        <v>0.31190000000000001</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>342.82</v>
+      </c>
+      <c r="M9">
+        <v>8500</v>
+      </c>
+      <c r="N9">
+        <v>7066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>24.5</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>62.6</v>
+      </c>
+      <c r="G10">
+        <v>501.4</v>
+      </c>
+      <c r="H10">
+        <v>564</v>
+      </c>
+      <c r="I10">
+        <v>19.43</v>
+      </c>
+      <c r="J10">
+        <v>0.1197</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>410.03</v>
+      </c>
+      <c r="M10">
+        <v>20000</v>
+      </c>
+      <c r="N10">
+        <v>7156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>24.5</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>60.4</v>
+      </c>
+      <c r="G11">
+        <v>516.5</v>
+      </c>
+      <c r="H11">
+        <v>576.9</v>
+      </c>
+      <c r="I11">
+        <v>19.43</v>
+      </c>
+      <c r="J11">
+        <v>0.1162</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>310.72000000000003</v>
+      </c>
+      <c r="M11">
+        <v>20000</v>
+      </c>
+      <c r="N11">
+        <v>7159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
@@ -2217,502 +2718,6 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>24.5</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>158.19999999999999</v>
-      </c>
-      <c r="G2">
-        <v>349.5</v>
-      </c>
-      <c r="H2">
-        <v>507.7</v>
-      </c>
-      <c r="I2">
-        <v>12.51</v>
-      </c>
-      <c r="J2">
-        <v>0.1431</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>137.21</v>
-      </c>
-      <c r="M2">
-        <v>10000</v>
-      </c>
-      <c r="N2">
-        <v>7140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>24.5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>172.6</v>
-      </c>
-      <c r="G3">
-        <v>429.74</v>
-      </c>
-      <c r="H3">
-        <v>602.34</v>
-      </c>
-      <c r="I3">
-        <v>12.51</v>
-      </c>
-      <c r="J3">
-        <v>0.1163</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>285.68</v>
-      </c>
-      <c r="M3">
-        <v>10000</v>
-      </c>
-      <c r="N3">
-        <v>7166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>24.5</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>154.88</v>
-      </c>
-      <c r="G4">
-        <v>354.6</v>
-      </c>
-      <c r="H4">
-        <v>509.48</v>
-      </c>
-      <c r="I4">
-        <v>12.51</v>
-      </c>
-      <c r="J4">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>260.93</v>
-      </c>
-      <c r="M4">
-        <v>12000</v>
-      </c>
-      <c r="N4">
-        <v>7141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>24.5</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>43.95</v>
-      </c>
-      <c r="G5">
-        <v>347.1</v>
-      </c>
-      <c r="H5">
-        <v>391.05</v>
-      </c>
-      <c r="I5">
-        <v>12.51</v>
-      </c>
-      <c r="J5">
-        <v>0.14410000000000001</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>203.12</v>
-      </c>
-      <c r="M5">
-        <v>12000</v>
-      </c>
-      <c r="N5">
-        <v>7108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>24.5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>43.9</v>
-      </c>
-      <c r="G6">
-        <v>406.8</v>
-      </c>
-      <c r="H6">
-        <v>450.7</v>
-      </c>
-      <c r="I6">
-        <v>12.51</v>
-      </c>
-      <c r="J6">
-        <v>0.1229</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>162.66999999999999</v>
-      </c>
-      <c r="M6">
-        <v>15000</v>
-      </c>
-      <c r="N6">
-        <v>7124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>24.5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>79</v>
-      </c>
-      <c r="G7">
-        <v>443.2</v>
-      </c>
-      <c r="H7">
-        <v>522.20000000000005</v>
-      </c>
-      <c r="I7">
-        <v>12.51</v>
-      </c>
-      <c r="J7">
-        <v>0.1128</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>287.18</v>
-      </c>
-      <c r="M7">
-        <v>15000</v>
-      </c>
-      <c r="N7">
-        <v>7144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>24.5</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>93.6</v>
-      </c>
-      <c r="G8">
-        <v>206.7</v>
-      </c>
-      <c r="H8">
-        <v>300.3</v>
-      </c>
-      <c r="I8">
-        <v>12.51</v>
-      </c>
-      <c r="J8">
-        <v>0.14510000000000001</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>248.46</v>
-      </c>
-      <c r="M8">
-        <v>8500</v>
-      </c>
-      <c r="N8">
-        <v>7083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>24.5</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="G9">
-        <v>160.30000000000001</v>
-      </c>
-      <c r="H9">
-        <v>238.7</v>
-      </c>
-      <c r="I9">
-        <v>12.51</v>
-      </c>
-      <c r="J9">
-        <v>0.31190000000000001</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>342.82</v>
-      </c>
-      <c r="M9">
-        <v>8500</v>
-      </c>
-      <c r="N9">
-        <v>7066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>24.5</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>60</v>
-      </c>
-      <c r="F10">
-        <v>62.6</v>
-      </c>
-      <c r="G10">
-        <v>501.4</v>
-      </c>
-      <c r="H10">
-        <v>564</v>
-      </c>
-      <c r="I10">
-        <v>19.43</v>
-      </c>
-      <c r="J10">
-        <v>0.1197</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>410.03</v>
-      </c>
-      <c r="M10">
-        <v>20000</v>
-      </c>
-      <c r="N10">
-        <v>7156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>24.5</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>60</v>
-      </c>
-      <c r="F11">
-        <v>60.4</v>
-      </c>
-      <c r="G11">
-        <v>516.5</v>
-      </c>
-      <c r="H11">
-        <v>576.9</v>
-      </c>
-      <c r="I11">
-        <v>19.43</v>
-      </c>
-      <c r="J11">
-        <v>0.1162</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>310.72000000000003</v>
-      </c>
-      <c r="M11">
-        <v>20000</v>
-      </c>
-      <c r="N11">
-        <v>7159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">

--- a/data/example_data/tooling_data.xlsx
+++ b/data/example_data/tooling_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juana\OneDrive\Documentos\Universidad de los Andes\8 semestre\Procesos de manufactura industrial\PROYECTO4\MachiningOptimization\data\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8BEEA2-176C-4868-B6B4-7C7A8660CDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8030720-C038-46D8-B281-5C579A921815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="3525" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine materials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>steel_1020_carbide</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Valor producción $</t>
+  </si>
+  <si>
+    <t>Tooling material</t>
   </si>
 </sst>
 </file>
@@ -190,10 +193,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,37 +545,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -579,12 +594,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,66 +612,66 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>7000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>716000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>5800</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>4050</v>
       </c>
     </row>
@@ -669,10 +685,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -682,35 +701,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>506707.4791</v>
       </c>
     </row>
@@ -724,49 +743,52 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="14" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1220,49 +1242,52 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="14" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1716,49 +1741,52 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="14" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2211,50 +2239,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="14" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2708,49 +2739,52 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="14" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
